--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -588,9 +588,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/pharmaceutical-doseform-vs</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -737,13 +737,13 @@
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.version</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.display</t>
@@ -1193,7 +1193,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.7734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3200,46 +3200,46 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3260,12 +3260,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3288,16 +3288,16 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3347,7 +3347,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3368,12 +3368,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3399,14 +3399,14 @@
         <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3431,13 +3431,11 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -3504,7 +3502,7 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>202</v>
@@ -3722,7 +3720,7 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>216</v>
@@ -4498,7 +4496,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4537,7 +4535,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4558,12 +4556,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4586,16 +4584,16 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4645,7 +4643,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4666,12 +4664,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4697,14 +4695,14 @@
         <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -4729,13 +4727,11 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -4802,7 +4798,7 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>202</v>
@@ -5020,7 +5016,7 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>216</v>
@@ -5448,7 +5444,7 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>161</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
